--- a/BuildList.xlsx
+++ b/BuildList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A825E5-C3E5-4856-99B1-FF3B945249D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{692F0173-D9E2-4D51-96FF-CF9353F47064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Claimbuild List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="493">
   <si>
     <t>Region Number</t>
   </si>
@@ -1411,9 +1413,6 @@
     <t>Bananas</t>
   </si>
   <si>
-    <t>Potato Farm</t>
-  </si>
-  <si>
     <t>Town-Town</t>
   </si>
   <si>
@@ -1457,13 +1456,79 @@
   </si>
   <si>
     <t>83315, 74, 65083</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Ashold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60744, 70, 49468 </t>
+  </si>
+  <si>
+    <t>Smith, Meadhost</t>
+  </si>
+  <si>
+    <t>Ashold castle</t>
+  </si>
+  <si>
+    <t>60801, 72, 49529</t>
+  </si>
+  <si>
+    <t>Mine (Iron)</t>
+  </si>
+  <si>
+    <t>Wizles</t>
+  </si>
+  <si>
+    <t>Trading post</t>
+  </si>
+  <si>
+    <t>Siniath Aur</t>
+  </si>
+  <si>
+    <t>40208, 87, 13532</t>
+  </si>
+  <si>
+    <t>Wood-elf smith</t>
+  </si>
+  <si>
+    <t>Pokerino</t>
+  </si>
+  <si>
+    <t>Potato Farm, Vineyard (Mix red, green)</t>
+  </si>
+  <si>
+    <t>Harad Dwarves</t>
+  </si>
+  <si>
+    <t>Sunkeep</t>
+  </si>
+  <si>
+    <t>8966, 181, 222457</t>
+  </si>
+  <si>
+    <t>Bree</t>
+  </si>
+  <si>
+    <t>Soughsbury</t>
+  </si>
+  <si>
+    <t>15178, 69, 3104</t>
+  </si>
+  <si>
+    <t>Bartender, Farmer</t>
+  </si>
+  <si>
+    <t>Brego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,8 +1549,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1600,6 +1671,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3CBE3C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD5C5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF20A734"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1613,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1772,6 +1861,27 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2492,6 +2602,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2540,24 +2668,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2579,16 +2689,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF20A734"/>
+      <color rgb="FFCD5C5C"/>
+      <color rgb="FF00C5CD"/>
+      <color rgb="FF3CBE3C"/>
       <color rgb="FFB22222"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFB434BE"/>
       <color rgb="FFCD00CD"/>
       <color rgb="FFEEEEE0"/>
       <color rgb="FFEEEEFF"/>
-      <color rgb="FF228B22"/>
-      <color rgb="FF00C5CD"/>
-      <color rgb="FF6495ED"/>
-      <color rgb="FF0000CD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2622,37 +2732,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle53" displayName="Tabelle53" ref="A1:I298" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
-  <autoFilter ref="A1:I297" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle53" displayName="Tabelle53" ref="A1:I300" totalsRowCount="1" headerRowDxfId="116" dataDxfId="115" totalsRowDxfId="114">
+  <autoFilter ref="A1:I299" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Region Number" totalsRowLabel="Total" dataDxfId="107" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region Name" dataDxfId="106" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Claimed by" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="6">
-      <totalsRowFormula>COUNTA(C1:C297)</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Region Number" totalsRowLabel="Total" dataDxfId="113" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region Name" dataDxfId="112" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Claimed by" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="6">
+      <totalsRowFormula>COUNTA(C1:C299)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type of Claimbuild" dataDxfId="104" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name" dataDxfId="103" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coordinates" dataDxfId="102" totalsRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Trader" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type of Claimbuild" dataDxfId="110" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name" dataDxfId="109" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Coordinates" dataDxfId="108" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Trader" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="2">
       <totalsRowFormula>SUBTOTAL(103,[1]!Tabelle5[Trader])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Rewards" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="1">
-      <totalsRowFormula>COUNTA(H1:H297)</totalsRowFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Rewards" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="1">
+      <totalsRowFormula>COUNTA(H1:H299)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Build by" dataDxfId="99" totalsRowDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Build by" dataDxfId="105" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Project" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type of Build" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Coordiantor" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Progress" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Project" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type of Build" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Coordiantor" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Progress" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2921,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J298"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +3073,7 @@
         <v>260</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>380</v>
@@ -3186,16 +3296,31 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="59">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="2"/>
+      <c r="C20" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -3706,79 +3831,94 @@
         <v>20</v>
       </c>
       <c r="D45" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>41</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E46" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F46" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G46" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H46" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I46" s="20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="46">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="46">
         <v>43</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B48" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C48" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D48" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E48" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F48" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47" t="s">
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>44</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3787,10 +3927,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3799,10 +3939,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3811,10 +3951,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3823,10 +3963,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3835,10 +3975,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3847,10 +3987,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3859,10 +3999,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3871,10 +4011,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3883,10 +4023,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3894,31 +4034,16 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="21">
-        <v>55</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22" t="s">
-        <v>415</v>
-      </c>
+      <c r="A59" s="1">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
@@ -3931,40 +4056,55 @@
         <v>259</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>293</v>
+        <v>413</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="22" t="s">
-        <v>300</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="H60" s="22"/>
       <c r="I60" s="22" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>56</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="I61" s="2"/>
+      <c r="A61" s="21">
+        <v>55</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3972,218 +4112,203 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
+      <c r="A63" s="1">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="21">
         <v>58</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B64" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C64" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D64" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E64" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F64" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G64" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H64" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="I64" s="22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>59</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
-        <v>60</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>415</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>320</v>
       </c>
       <c r="D66" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>61</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E67" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F67" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G67" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H67" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="I66" s="24" t="s">
+      <c r="I67" s="24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>62</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="51">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="51">
         <v>63</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B69" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C69" s="51" t="s">
         <v>423</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D69" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E69" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="F69" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="G68" s="51"/>
-      <c r="H68" s="52" t="s">
-        <v>458</v>
-      </c>
-      <c r="I68" s="52" t="s">
+      <c r="G69" s="51"/>
+      <c r="H69" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="I69" s="52" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <v>63</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="I69" s="23" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>320</v>
       </c>
       <c r="D70" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>64</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E70" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="I70" s="24" t="s">
+      <c r="E71" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="F71" s="24"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="I71" s="24" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
-        <v>65</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4197,67 +4322,82 @@
         <v>259</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="22"/>
+      <c r="I72" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>65</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H73" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="I72" s="22" t="s">
+      <c r="I73" s="22" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
         <v>66</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B74" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D74" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E74" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F74" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24" t="s">
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>67</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4266,10 +4406,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4278,10 +4418,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4289,48 +4429,69 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>71</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="I78" s="2"/>
+      <c r="A78" s="54">
+        <v>70</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>475</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H78" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="I78" s="55" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="27">
-        <v>72</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="27" t="s">
+      <c r="A79" s="54">
+        <v>70</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="D79" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="E79" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28" t="s">
-        <v>336</v>
+      <c r="E79" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="F79" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="H79" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="I79" s="55" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4338,38 +4499,36 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="48">
-        <v>74</v>
-      </c>
-      <c r="B81" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="D81" s="48" t="s">
+      <c r="A81" s="27">
+        <v>72</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="F81" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="G81" s="48"/>
-      <c r="H81" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="I81" s="49" t="s">
-        <v>444</v>
+      <c r="E81" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4377,23 +4536,38 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>76</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="I83" s="2"/>
+      <c r="A83" s="48">
+        <v>74</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="D83" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F83" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="G83" s="48"/>
+      <c r="H83" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="I83" s="49" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4402,10 +4576,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4413,38 +4587,23 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="29">
-        <v>79</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30" t="s">
-        <v>339</v>
-      </c>
+      <c r="A86" s="1">
+        <v>77</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4452,23 +4611,38 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>81</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="I88" s="2"/>
+      <c r="A88" s="29">
+        <v>79</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4477,10 +4651,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4489,10 +4663,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4501,10 +4675,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4513,10 +4687,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4525,10 +4699,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4537,10 +4711,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4549,10 +4723,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4561,10 +4735,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4573,10 +4747,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4585,10 +4759,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4597,10 +4771,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4609,10 +4783,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4621,10 +4795,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4633,10 +4807,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4645,10 +4819,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4657,10 +4831,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4668,120 +4842,120 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="23">
-        <v>99</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>345</v>
-      </c>
+      <c r="A106" s="1">
+        <v>97</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="23">
-        <v>99</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="F107" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="H107" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="I107" s="24" t="s">
-        <v>345</v>
-      </c>
+      <c r="A107" s="1">
+        <v>98</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>320</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>373</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="G108" s="24"/>
       <c r="H108" s="24" t="s">
         <v>419</v>
       </c>
       <c r="I108" s="24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="23">
+        <v>99</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="I109" s="24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
+        <v>100</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="I110" s="24" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>101</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>102</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4790,10 +4964,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4802,10 +4976,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4814,10 +4988,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4826,10 +5000,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4838,10 +5012,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4850,10 +5024,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4862,10 +5036,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4874,10 +5048,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4886,10 +5060,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4898,10 +5072,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4910,10 +5084,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4922,10 +5096,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4934,10 +5108,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4946,10 +5120,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4958,10 +5132,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4969,38 +5143,23 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="44">
-        <v>119</v>
-      </c>
-      <c r="B127" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="D127" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="E127" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="F127" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="G127" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="H127" s="45"/>
-      <c r="I127" s="45" t="s">
-        <v>432</v>
-      </c>
+      <c r="A127" s="1">
+        <v>117</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -5008,50 +5167,50 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>121</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="I129" s="2"/>
+      <c r="A129" s="44">
+        <v>119</v>
+      </c>
+      <c r="B129" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E129" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="F129" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G129" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="29">
-        <v>122</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E130" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="G130" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="H130" s="30"/>
-      <c r="I130" s="30" t="s">
-        <v>339</v>
-      </c>
+      <c r="A130" s="1">
+        <v>120</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5059,50 +5218,50 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>124</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="I132" s="2"/>
+      <c r="A132" s="29">
+        <v>122</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="29">
-        <v>125</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C133" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E133" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="F133" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="G133" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="H133" s="30"/>
-      <c r="I133" s="30" t="s">
-        <v>422</v>
-      </c>
+      <c r="A133" s="1">
+        <v>123</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5110,23 +5269,38 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>127</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="I135" s="2"/>
+      <c r="A135" s="29">
+        <v>125</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5135,10 +5309,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5147,10 +5321,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5159,10 +5333,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5171,10 +5345,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5183,10 +5357,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5195,10 +5369,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5207,10 +5381,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5219,10 +5393,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5231,10 +5405,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5243,10 +5417,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5255,10 +5429,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5267,10 +5441,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5279,10 +5453,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5291,10 +5465,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5303,10 +5477,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5315,10 +5489,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5327,10 +5501,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5339,10 +5513,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5351,10 +5525,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5363,10 +5537,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5375,10 +5549,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5387,10 +5561,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5398,40 +5572,23 @@
       <c r="I158" s="2"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="32">
-        <v>151</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="D159" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="E159" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F159" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="G159" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="H159" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="I159" s="33" t="s">
-        <v>346</v>
-      </c>
+      <c r="A159" s="1">
+        <v>149</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5439,23 +5596,40 @@
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>153</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="I161" s="2"/>
+      <c r="A161" s="32">
+        <v>151</v>
+      </c>
+      <c r="B161" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G161" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="H161" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="I161" s="33" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5464,10 +5638,10 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5476,10 +5650,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5488,10 +5662,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5500,10 +5674,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5512,10 +5686,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5524,10 +5698,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5536,10 +5710,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5548,10 +5722,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5560,10 +5734,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5572,10 +5746,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5584,10 +5758,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5596,10 +5770,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5608,10 +5782,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5620,10 +5794,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5632,10 +5806,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5644,10 +5818,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5656,10 +5830,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5668,10 +5842,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5680,10 +5854,10 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5691,38 +5865,23 @@
       <c r="I181" s="2"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="35">
-        <v>174</v>
-      </c>
-      <c r="B182" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C182" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D182" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E182" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="F182" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="G182" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="H182" s="36"/>
-      <c r="I182" s="36" t="s">
-        <v>365</v>
-      </c>
+      <c r="A182" s="1">
+        <v>172</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="I182" s="2"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5730,50 +5889,50 @@
       <c r="I183" s="2"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>176</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="I184" s="2"/>
+      <c r="A184" s="35">
+        <v>174</v>
+      </c>
+      <c r="B184" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C184" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D184" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E184" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="F184" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="G184" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="32">
-        <v>177</v>
-      </c>
-      <c r="B185" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D185" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E185" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="F185" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="G185" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33" t="s">
-        <v>347</v>
-      </c>
+      <c r="A185" s="1">
+        <v>175</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="I185" s="2"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5781,23 +5940,38 @@
       <c r="I186" s="2"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>179</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="I187" s="2"/>
+      <c r="A187" s="32">
+        <v>177</v>
+      </c>
+      <c r="B187" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D187" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E187" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G187" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -5806,10 +5980,10 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5818,10 +5992,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -5830,10 +6004,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -5842,10 +6016,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5854,10 +6028,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5866,10 +6040,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5878,10 +6052,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -5890,10 +6064,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -5902,10 +6076,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -5914,10 +6088,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5926,10 +6100,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5938,10 +6112,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -5950,10 +6124,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -5962,10 +6136,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -5974,10 +6148,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -5986,10 +6160,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -5998,10 +6172,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -6010,10 +6184,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -6022,10 +6196,10 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -6034,10 +6208,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -6046,10 +6220,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -6058,10 +6232,10 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -6070,10 +6244,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -6082,10 +6256,10 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -6094,10 +6268,10 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6106,10 +6280,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -6118,10 +6292,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -6130,10 +6304,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -6142,10 +6316,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -6154,10 +6328,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -6166,10 +6340,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -6178,10 +6352,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -6190,10 +6364,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -6202,10 +6376,10 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -6214,10 +6388,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -6226,10 +6400,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -6238,10 +6412,10 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -6250,10 +6424,10 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -6262,10 +6436,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -6274,10 +6448,10 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -6286,10 +6460,10 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -6298,10 +6472,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -6310,10 +6484,10 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -6322,10 +6496,10 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -6334,10 +6508,10 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -6346,10 +6520,10 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -6358,10 +6532,10 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -6370,10 +6544,10 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -6381,124 +6555,109 @@
       <c r="I236" s="2"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="37">
-        <v>229</v>
-      </c>
-      <c r="B237" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C237" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="D237" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="E237" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="F237" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="G237" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="H237" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="I237" s="38" t="s">
-        <v>348</v>
-      </c>
+      <c r="A237" s="1">
+        <v>227</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="I237" s="2"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="37">
-        <v>229</v>
-      </c>
-      <c r="B238" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C238" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="D238" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="E238" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="F238" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="G238" s="37"/>
-      <c r="H238" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="I238" s="38" t="s">
-        <v>348</v>
-      </c>
+      <c r="A238" s="1">
+        <v>228</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="I238" s="2"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="37">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="37" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C239" s="37" t="s">
         <v>328</v>
       </c>
       <c r="D239" s="37" t="s">
-        <v>412</v>
+        <v>273</v>
       </c>
       <c r="E239" s="38" t="s">
-        <v>448</v>
+        <v>329</v>
       </c>
       <c r="F239" s="38" t="s">
-        <v>449</v>
+        <v>330</v>
       </c>
       <c r="G239" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="H239" s="50" t="s">
-        <v>262</v>
+        <v>331</v>
+      </c>
+      <c r="H239" s="38" t="s">
+        <v>452</v>
       </c>
       <c r="I239" s="38" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>231</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="I240" s="2"/>
+      <c r="A240" s="37">
+        <v>229</v>
+      </c>
+      <c r="B240" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C240" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="D240" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E240" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="F240" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="G240" s="37"/>
+      <c r="H240" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="I240" s="38" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="37">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B241" s="37" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C241" s="37" t="s">
         <v>328</v>
       </c>
       <c r="D241" s="37" t="s">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="E241" s="38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F241" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="G241" s="37"/>
-      <c r="H241" s="38" t="s">
-        <v>454</v>
+        <v>449</v>
+      </c>
+      <c r="G241" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="H241" s="50" t="s">
+        <v>262</v>
       </c>
       <c r="I241" s="38" t="s">
         <v>348</v>
@@ -6506,10 +6665,10 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -6517,23 +6676,38 @@
       <c r="I242" s="2"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>234</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="I243" s="2"/>
+      <c r="A243" s="37">
+        <v>232</v>
+      </c>
+      <c r="B243" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C243" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="D243" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E243" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="G243" s="37"/>
+      <c r="H243" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="I243" s="38" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -6542,10 +6716,10 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -6554,10 +6728,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -6566,10 +6740,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -6578,10 +6752,10 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -6590,10 +6764,10 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -6602,10 +6776,10 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -6614,10 +6788,10 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -6626,10 +6800,10 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -6638,10 +6812,10 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -6650,10 +6824,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -6662,10 +6836,10 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -6674,10 +6848,10 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -6686,10 +6860,10 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -6698,10 +6872,10 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -6710,10 +6884,10 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -6721,87 +6895,102 @@
       <c r="I259" s="2"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="39">
+      <c r="A260" s="1">
+        <v>249</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="I260" s="2"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="57">
+        <v>250</v>
+      </c>
+      <c r="B261" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C261" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="D261" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="E261" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="F261" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="G261" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="H261" s="58"/>
+      <c r="I261" s="58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="39">
         <v>251</v>
       </c>
-      <c r="B260" s="39" t="s">
+      <c r="B262" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C260" s="39" t="s">
+      <c r="C262" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="D260" s="39" t="s">
+      <c r="D262" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="E260" s="40" t="s">
+      <c r="E262" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="F260" s="40" t="s">
+      <c r="F262" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="G260" s="39"/>
-      <c r="H260" s="40" t="s">
+      <c r="G262" s="39"/>
+      <c r="H262" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="I260" s="40" t="s">
+      <c r="I262" s="40" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="39">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="39">
         <v>251</v>
       </c>
-      <c r="B261" s="39" t="s">
+      <c r="B263" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C261" s="39" t="s">
+      <c r="C263" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="D261" s="39" t="s">
+      <c r="D263" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="E261" s="40" t="s">
+      <c r="E263" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="F261" s="40" t="s">
+      <c r="F263" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="G261" s="39"/>
-      <c r="H261" s="40"/>
-      <c r="I261" s="40" t="s">
+      <c r="G263" s="39"/>
+      <c r="H263" s="40"/>
+      <c r="I263" s="40" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>252</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="G262" s="1"/>
-      <c r="I262" s="2"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>253</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="G263" s="1"/>
-      <c r="I263" s="2"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -6810,10 +6999,10 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -6822,10 +7011,10 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -6834,10 +7023,10 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -6846,10 +7035,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -6858,10 +7047,10 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -6870,10 +7059,10 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -6881,64 +7070,64 @@
       <c r="I270" s="2"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="41">
-        <v>261</v>
-      </c>
-      <c r="B271" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C271" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="D271" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E271" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="F271" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="G271" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="H271" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="I271" s="42" t="s">
-        <v>343</v>
-      </c>
+      <c r="A271" s="1">
+        <v>259</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="I271" s="2"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>262</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="G272" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="G272" s="1"/>
       <c r="I272" s="2"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>263</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="G273" s="4"/>
-      <c r="I273" s="2"/>
+      <c r="A273" s="41">
+        <v>261</v>
+      </c>
+      <c r="B273" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C273" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="D273" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="E273" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="F273" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G273" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="H273" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="I273" s="42" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -6947,10 +7136,10 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -6959,10 +7148,10 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>266</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>391</v>
+        <v>264</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -6971,10 +7160,10 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -6983,10 +7172,10 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>268</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>393</v>
+        <v>266</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -6995,10 +7184,10 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -7007,10 +7196,10 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -7019,10 +7208,10 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -7031,10 +7220,10 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -7043,10 +7232,10 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -7055,10 +7244,10 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -7067,10 +7256,10 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -7079,10 +7268,10 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -7091,10 +7280,10 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -7103,10 +7292,10 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -7115,10 +7304,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -7127,10 +7316,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -7139,10 +7328,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -7151,10 +7340,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -7163,10 +7352,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -7175,10 +7364,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -7187,10 +7376,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -7199,66 +7388,90 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="G296" s="4"/>
       <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="38">
+      <c r="A297" s="1">
+        <v>285</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="G297" s="4"/>
+      <c r="I297" s="2"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>286</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="G298" s="4"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="38">
         <v>287</v>
       </c>
-      <c r="B297" s="38" t="s">
+      <c r="B299" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="C297" s="38" t="s">
+      <c r="C299" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="D297" s="38" t="s">
+      <c r="D299" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E297" s="38" t="s">
+      <c r="E299" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="F299" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="F297" s="38" t="s">
+      <c r="G299" s="38"/>
+      <c r="H299" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="G297" s="38"/>
-      <c r="H297" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="I297" s="38" t="s">
+      <c r="I299" s="38" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C298" s="4">
-        <f>COUNTA(C1:C297)</f>
-        <v>48</v>
-      </c>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="G298" s="2" t="e">
+      <c r="C300" s="4">
+        <f>COUNTA(C1:C299)</f>
+        <v>53</v>
+      </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="G300" s="2" t="e">
         <f>SUBTOTAL(103,[1]!Tabelle5[Trader])</f>
         <v>#REF!</v>
       </c>
-      <c r="H298" s="4">
-        <f>COUNTA(H1:H297)</f>
-        <v>27</v>
-      </c>
-      <c r="I298" s="2"/>
+      <c r="H300" s="4">
+        <f>COUNTA(H1:H299)</f>
+        <v>29</v>
+      </c>
+      <c r="I300" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C299:C1048576 C1:C33 C35:C46 C82:C126 C48:C68 C70:C80">
+  <conditionalFormatting sqref="C301:C1048576 C1:C33 C35:C47 C84:C128 C49:C69 C71:C82 C241:C299">
     <cfRule type="containsText" priority="85" operator="containsText" text="Gulf_of_Harad">
       <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C1)))</formula>
     </cfRule>
@@ -7299,142 +7512,142 @@
       <formula>NOT(ISERROR(SEARCH("Angmar",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C237 C239:C297">
+  <conditionalFormatting sqref="C130:C239">
     <cfRule type="containsText" priority="72" operator="containsText" text="Gulf_of_Harad">
-      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="86" priority="73" operator="containsText" text="Gondor">
-      <formula>NOT(ISERROR(SEARCH("Gondor",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gondor",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="85" priority="74" operator="containsText" text="Fangorn">
-      <formula>NOT(ISERROR(SEARCH("Fangorn",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fangorn",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="84" priority="75" operator="containsText" text="Eregion">
-      <formula>NOT(ISERROR(SEARCH("Eregion",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Eregion",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="83" priority="76" operator="containsText" text="Ered_Luin_Dwarves">
-      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="82" priority="77" operator="containsText" text="Durins_Folk">
-      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="81" priority="78" operator="containsText" text="Dunland">
-      <formula>NOT(ISERROR(SEARCH("Dunland",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dunland",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="Dorwinion">
-      <formula>NOT(ISERROR(SEARCH("Dorwinion",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dorwinion",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="Dol_Guldur">
-      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Dale">
-      <formula>NOT(ISERROR(SEARCH("Dale",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dale",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Beornings">
-      <formula>NOT(ISERROR(SEARCH("Beornings",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Beornings",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="Avari">
-      <formula>NOT(ISERROR(SEARCH("Avari",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Avari",C130)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="Angmar">
-      <formula>NOT(ISERROR(SEARCH("Angmar",C128)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Angmar",C130)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C237 C2:C33 C35:C46 C239:C297 C82:C126 C48:C68 C70:C80">
+  <conditionalFormatting sqref="C130:C239 C2:C33 C35:C47 C84:C128 C49:C69 C71:C82 C241:C299">
     <cfRule type="containsText" dxfId="74" priority="71" operator="containsText" text="Bangad-Minhirith">
       <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+  <conditionalFormatting sqref="C129">
     <cfRule type="containsText" priority="58" operator="containsText" text="Gulf_of_Harad">
-      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="73" priority="59" operator="containsText" text="Gondor">
-      <formula>NOT(ISERROR(SEARCH("Gondor",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gondor",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="60" operator="containsText" text="Fangorn">
-      <formula>NOT(ISERROR(SEARCH("Fangorn",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fangorn",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="Eregion">
-      <formula>NOT(ISERROR(SEARCH("Eregion",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Eregion",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="62" operator="containsText" text="Ered_Luin_Dwarves">
-      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="Durins_Folk">
-      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Dunland">
-      <formula>NOT(ISERROR(SEARCH("Dunland",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dunland",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Dorwinion">
-      <formula>NOT(ISERROR(SEARCH("Dorwinion",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dorwinion",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Dol_Guldur">
-      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Dale">
-      <formula>NOT(ISERROR(SEARCH("Dale",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dale",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Beornings">
-      <formula>NOT(ISERROR(SEARCH("Beornings",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Beornings",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Avari">
-      <formula>NOT(ISERROR(SEARCH("Avari",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Avari",C129)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="62" priority="70" operator="containsText" text="Angmar">
-      <formula>NOT(ISERROR(SEARCH("Angmar",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Angmar",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+  <conditionalFormatting sqref="C129">
     <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="Bangad-Minhirith">
-      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C129)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="containsText" priority="44" operator="containsText" text="Gulf_of_Harad">
-      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="Gondor">
-      <formula>NOT(ISERROR(SEARCH("Gondor",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gondor",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="59" priority="46" operator="containsText" text="Fangorn">
-      <formula>NOT(ISERROR(SEARCH("Fangorn",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fangorn",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="47" operator="containsText" text="Eregion">
-      <formula>NOT(ISERROR(SEARCH("Eregion",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Eregion",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="48" operator="containsText" text="Ered_Luin_Dwarves">
-      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="Durins_Folk">
-      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Dunland">
-      <formula>NOT(ISERROR(SEARCH("Dunland",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dunland",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="Dorwinion">
-      <formula>NOT(ISERROR(SEARCH("Dorwinion",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dorwinion",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="Dol_Guldur">
-      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Dale">
-      <formula>NOT(ISERROR(SEARCH("Dale",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dale",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Beornings">
-      <formula>NOT(ISERROR(SEARCH("Beornings",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Beornings",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Avari">
-      <formula>NOT(ISERROR(SEARCH("Avari",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Avari",C48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Angmar">
-      <formula>NOT(ISERROR(SEARCH("Angmar",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Angmar",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C48">
     <cfRule type="containsText" dxfId="48" priority="43" operator="containsText" text="Bangad-Minhirith">
-      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
@@ -7483,96 +7696,96 @@
       <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
+  <conditionalFormatting sqref="C240">
     <cfRule type="containsText" priority="16" operator="containsText" text="Gulf_of_Harad">
-      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Gondor">
-      <formula>NOT(ISERROR(SEARCH("Gondor",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gondor",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Fangorn">
-      <formula>NOT(ISERROR(SEARCH("Fangorn",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fangorn",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="Eregion">
-      <formula>NOT(ISERROR(SEARCH("Eregion",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Eregion",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="Ered_Luin_Dwarves">
-      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="Durins_Folk">
-      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Dunland">
-      <formula>NOT(ISERROR(SEARCH("Dunland",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dunland",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="Dorwinion">
-      <formula>NOT(ISERROR(SEARCH("Dorwinion",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dorwinion",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Dol_Guldur">
-      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Dale">
-      <formula>NOT(ISERROR(SEARCH("Dale",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dale",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Beornings">
-      <formula>NOT(ISERROR(SEARCH("Beornings",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Beornings",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Avari">
-      <formula>NOT(ISERROR(SEARCH("Avari",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Avari",C240)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Angmar">
-      <formula>NOT(ISERROR(SEARCH("Angmar",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Angmar",C240)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
+  <conditionalFormatting sqref="C240">
     <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="Bangad-Minhirith">
-      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C238)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C240)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
+  <conditionalFormatting sqref="C83">
     <cfRule type="containsText" priority="2" operator="containsText" text="Gulf_of_Harad">
-      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gulf_of_Harad",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Gondor">
-      <formula>NOT(ISERROR(SEARCH("Gondor",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gondor",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Fangorn">
-      <formula>NOT(ISERROR(SEARCH("Fangorn",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fangorn",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="Eregion">
-      <formula>NOT(ISERROR(SEARCH("Eregion",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Eregion",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Ered_Luin_Dwarves">
-      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ered_Luin_Dwarves",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Durins_Folk">
-      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Durins_Folk",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Dunland">
-      <formula>NOT(ISERROR(SEARCH("Dunland",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dunland",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Dorwinion">
-      <formula>NOT(ISERROR(SEARCH("Dorwinion",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dorwinion",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Dol_Guldur">
-      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dol_Guldur",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Dale">
-      <formula>NOT(ISERROR(SEARCH("Dale",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Dale",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Beornings">
-      <formula>NOT(ISERROR(SEARCH("Beornings",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Beornings",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Avari">
-      <formula>NOT(ISERROR(SEARCH("Avari",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Avari",C83)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Angmar">
-      <formula>NOT(ISERROR(SEARCH("Angmar",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Angmar",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
+  <conditionalFormatting sqref="C83">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Bangad-Minhirith">
-      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bangad-Minhirith",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BuildList.xlsx
+++ b/BuildList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="535">
   <si>
     <t>Region Name</t>
   </si>
@@ -1615,6 +1615,15 @@
   </si>
   <si>
     <t>Farm (2x Reed )</t>
+  </si>
+  <si>
+    <t>Army Slot 1</t>
+  </si>
+  <si>
+    <t>Army Slot 2</t>
+  </si>
+  <si>
+    <t>Trading Company Slot</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1698,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1737,24 +1761,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:I350" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I350">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Region Number" dataDxfId="8"/>
-    <tableColumn id="2" name="Region Name" dataDxfId="7"/>
-    <tableColumn id="3" name="Claimed by" dataDxfId="6"/>
-    <tableColumn id="4" name="Type of Claimbuild" dataDxfId="5"/>
-    <tableColumn id="5" name="Claimbuild Name" dataDxfId="4"/>
-    <tableColumn id="6" name="Coordinates" dataDxfId="3"/>
-    <tableColumn id="7" name="Trader" dataDxfId="2"/>
-    <tableColumn id="8" name="Ressources" dataDxfId="1"/>
-    <tableColumn id="9" name="Build by" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:K350" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:K350"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Region Number" dataDxfId="13"/>
+    <tableColumn id="2" name="Region Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Claimed by" dataDxfId="11"/>
+    <tableColumn id="4" name="Type of Claimbuild" dataDxfId="10"/>
+    <tableColumn id="5" name="Claimbuild Name" dataDxfId="9"/>
+    <tableColumn id="6" name="Coordinates" dataDxfId="8"/>
+    <tableColumn id="7" name="Trader" dataDxfId="7"/>
+    <tableColumn id="8" name="Ressources" dataDxfId="6"/>
+    <tableColumn id="9" name="Army Slot 1" dataDxfId="5"/>
+    <tableColumn id="10" name="Army Slot 2" dataDxfId="4"/>
+    <tableColumn id="11" name="Trading Company Slot" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="L1:L350" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="L1:L350"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Build by" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2023,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:L350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:I154"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,10 +2069,13 @@
     <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -2067,331 +2100,420 @@
       <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2413,27 +2535,33 @@
       <c r="G42" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2452,131 +2580,163 @@
       <c r="F45" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2598,11 +2758,13 @@
       <c r="G61" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2624,19 +2786,23 @@
       <c r="G62" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -2658,11 +2824,13 @@
       <c r="G64" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -2684,11 +2852,13 @@
       <c r="G65" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2707,11 +2877,13 @@
       <c r="F66" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -2733,11 +2905,13 @@
       <c r="G67" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>65</v>
       </c>
@@ -2760,19 +2934,23 @@
         <v>363</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -2797,11 +2975,13 @@
       <c r="H70" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -2826,11 +3006,13 @@
       <c r="H71" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -2852,35 +3034,43 @@
       <c r="G72" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -2899,11 +3089,13 @@
       <c r="F76" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -2922,19 +3114,23 @@
       <c r="F77" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -2956,11 +3152,13 @@
       <c r="G79" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>74</v>
       </c>
@@ -2982,11 +3180,13 @@
       <c r="G80" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>74</v>
       </c>
@@ -3011,11 +3211,13 @@
       <c r="H81" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>75</v>
       </c>
@@ -3037,43 +3239,53 @@
       <c r="G82" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>76</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>77</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>78</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>80</v>
       </c>
@@ -3095,83 +3307,103 @@
       <c r="G87" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>83</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>84</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>85</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>87</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>90</v>
       </c>
@@ -3193,11 +3425,13 @@
       <c r="G97" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>91</v>
       </c>
@@ -3219,11 +3453,13 @@
       <c r="G98" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>91</v>
       </c>
@@ -3245,11 +3481,13 @@
       <c r="H99" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>92</v>
       </c>
@@ -3271,11 +3509,13 @@
       <c r="H100" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>93</v>
       </c>
@@ -3297,11 +3537,13 @@
       <c r="G101" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>94</v>
       </c>
@@ -3326,27 +3568,33 @@
       <c r="H102" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>97</v>
       </c>
@@ -3368,11 +3616,13 @@
       <c r="G105" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>98</v>
       </c>
@@ -3397,11 +3647,13 @@
       <c r="H106" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>99</v>
       </c>
@@ -3426,11 +3678,13 @@
       <c r="H107" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>100</v>
       </c>
@@ -3452,11 +3706,13 @@
       <c r="H108" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>100</v>
       </c>
@@ -3477,43 +3733,53 @@
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="5" t="s">
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>104</v>
       </c>
@@ -3535,19 +3801,23 @@
       <c r="G114" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>105</v>
       </c>
@@ -3569,67 +3839,83 @@
       <c r="G116" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>113</v>
       </c>
@@ -3654,11 +3940,13 @@
       <c r="H124" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>114</v>
       </c>
@@ -3680,83 +3968,103 @@
       <c r="G125" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>124</v>
       </c>
@@ -3779,11 +4087,13 @@
       <c r="H135" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>125</v>
       </c>
@@ -3805,67 +4115,83 @@
       <c r="G136" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>126</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>132</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>133</v>
       </c>
@@ -3887,67 +4213,83 @@
       <c r="G144" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I144" s="2" t="s">
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>139</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>140</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>141</v>
       </c>
@@ -3969,11 +4311,13 @@
       <c r="G152" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>142</v>
       </c>
@@ -3998,11 +4342,13 @@
       <c r="H153" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>142</v>
       </c>
@@ -4024,43 +4370,53 @@
       <c r="G154" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>145</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>147</v>
       </c>
@@ -4082,11 +4438,13 @@
       <c r="H159" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I159" s="2" t="s">
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>147</v>
       </c>
@@ -4108,11 +4466,13 @@
       <c r="G160" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>148</v>
       </c>
@@ -4135,35 +4495,43 @@
         <v>464</v>
       </c>
       <c r="H161" s="5"/>
-      <c r="I161" s="5" t="s">
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>150</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>151</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>152</v>
       </c>
@@ -4185,291 +4553,363 @@
       <c r="H165" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I165" s="2" t="s">
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>153</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>154</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>155</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>156</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>157</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>158</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>159</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>160</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>161</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>162</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>163</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>164</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>166</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>167</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>168</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>171</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>172</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>173</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>174</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>175</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>176</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>177</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>178</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>179</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>180</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>181</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>182</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>183</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>184</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>185</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>186</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>187</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>188</v>
       </c>
@@ -4491,11 +4931,13 @@
       <c r="H201" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I201" s="2" t="s">
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>188</v>
       </c>
@@ -4517,99 +4959,123 @@
       <c r="G202" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I202" s="2" t="s">
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>189</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>190</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>191</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>192</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>193</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>194</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>195</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>196</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>197</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>198</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>199</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>200</v>
       </c>
@@ -4634,291 +5100,363 @@
       <c r="H214" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="I214" s="2" t="s">
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>201</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>202</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>203</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>204</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>205</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>206</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>207</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>208</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>209</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>210</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>211</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>212</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>213</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>214</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>215</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>216</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>217</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>218</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>219</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>220</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>221</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>222</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>223</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>224</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>225</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>226</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>227</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>228</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>229</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>230</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>231</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>232</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>233</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>234</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>235</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>236</v>
       </c>
@@ -4940,35 +5478,43 @@
       <c r="G250" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I250" s="2" t="s">
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>237</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>238</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>239</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>240</v>
       </c>
@@ -4990,515 +5536,643 @@
       <c r="G254" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I254" s="2" t="s">
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>241</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>242</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>243</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>244</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>245</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>246</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>247</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>248</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>249</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>250</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J264" s="2"/>
+      <c r="K264" s="2"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>251</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>252</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>253</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>254</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>255</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>256</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>257</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>258</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>259</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>260</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J274" s="2"/>
+      <c r="K274" s="2"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>261</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>262</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>263</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>264</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>265</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>266</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>267</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>268</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>269</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>270</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>271</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>272</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>273</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>274</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J288" s="2"/>
+      <c r="K288" s="2"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>275</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J289" s="2"/>
+      <c r="K289" s="2"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>276</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J290" s="2"/>
+      <c r="K290" s="2"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>277</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J291" s="2"/>
+      <c r="K291" s="2"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>278</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>279</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>280</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J294" s="2"/>
+      <c r="K294" s="2"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>281</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J295" s="2"/>
+      <c r="K295" s="2"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>282</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J296" s="2"/>
+      <c r="K296" s="2"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>283</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>284</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>285</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J299" s="2"/>
+      <c r="K299" s="2"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>286</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J300" s="2"/>
+      <c r="K300" s="2"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>287</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>288</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>289</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>290</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>291</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>292</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>293</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>294</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>295</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J309" s="2"/>
+      <c r="K309" s="2"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>296</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>297</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>298</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J312" s="2"/>
+      <c r="K312" s="2"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>299</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>300</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>301</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J315" s="2"/>
+      <c r="K315" s="2"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>302</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>303</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>304</v>
       </c>
@@ -5520,83 +6194,103 @@
       <c r="G318" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I318" s="2" t="s">
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+      <c r="L318" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>305</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J319" s="2"/>
+      <c r="K319" s="2"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>306</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J320" s="2"/>
+      <c r="K320" s="2"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>307</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J321" s="2"/>
+      <c r="K321" s="2"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>308</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J322" s="2"/>
+      <c r="K322" s="2"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>309</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J323" s="2"/>
+      <c r="K323" s="2"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>310</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J324" s="2"/>
+      <c r="K324" s="2"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>311</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J325" s="2"/>
+      <c r="K325" s="2"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>312</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J326" s="2"/>
+      <c r="K326" s="2"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>313</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="2"/>
+      <c r="K327" s="2"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>314</v>
       </c>
@@ -5618,11 +6312,13 @@
       <c r="H328" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I328" s="2" t="s">
+      <c r="J328" s="2"/>
+      <c r="K328" s="2"/>
+      <c r="L328" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>315</v>
       </c>
@@ -5647,11 +6343,13 @@
       <c r="H329" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I329" s="2" t="s">
+      <c r="J329" s="2"/>
+      <c r="K329" s="2"/>
+      <c r="L329" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>315</v>
       </c>
@@ -5673,35 +6371,43 @@
       <c r="H330" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I330" s="2" t="s">
+      <c r="J330" s="2"/>
+      <c r="K330" s="2"/>
+      <c r="L330" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>316</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J331" s="2"/>
+      <c r="K331" s="2"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>317</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J332" s="2"/>
+      <c r="K332" s="2"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>318</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="2"/>
+      <c r="K333" s="2"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>319</v>
       </c>
@@ -5723,123 +6429,153 @@
       <c r="H334" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="I334" s="2" t="s">
+      <c r="J334" s="2"/>
+      <c r="K334" s="2"/>
+      <c r="L334" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>320</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J335" s="2"/>
+      <c r="K335" s="2"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>321</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J336" s="2"/>
+      <c r="K336" s="2"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>322</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J337" s="2"/>
+      <c r="K337" s="2"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>323</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>324</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J339" s="2"/>
+      <c r="K339" s="2"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>325</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J340" s="2"/>
+      <c r="K340" s="2"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>326</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J341" s="2"/>
+      <c r="K341" s="2"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>327</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J342" s="2"/>
+      <c r="K342" s="2"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>328</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J343" s="2"/>
+      <c r="K343" s="2"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>329</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J344" s="2"/>
+      <c r="K344" s="2"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>330</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J345" s="2"/>
+      <c r="K345" s="2"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>331</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J346" s="2"/>
+      <c r="K346" s="2"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>332</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J347" s="2"/>
+      <c r="K347" s="2"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>333</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J348" s="2"/>
+      <c r="K348" s="2"/>
+    </row>
+    <row r="349" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>334</v>
       </c>
@@ -5864,23 +6600,28 @@
       <c r="H349" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I349" s="5" t="s">
+      <c r="J349" s="5"/>
+      <c r="K349" s="5"/>
+      <c r="L349" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>335</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="J350" s="2"/>
+      <c r="K350" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>